--- a/Outputs/5. Budget constrained/Output Files/1500000/Output_3_28.xlsx
+++ b/Outputs/5. Budget constrained/Output Files/1500000/Output_3_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2289549.639719028</v>
+        <v>2262607.561078962</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>122.9534868819423</v>
+        <v>390.7529822392023</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>84.45262105857549</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>82.92375604299538</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>383.1210607601525</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>49.82207779831584</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>190.271393580297</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>109.4422623037134</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>126.7477612906591</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.85099796338696</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>14.48345164522491</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>135.6677021297714</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>237.6821551249383</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>110.3499369036729</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>146.6645747100843</v>
+        <v>62.63869417193506</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2065,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>17.29855725687435</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>108.0134540956647</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,7 +2296,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>35.58458003433862</v>
       </c>
       <c r="H25" t="n">
-        <v>93.7099196889334</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.64843562452389</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>58.19095390327369</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>5.322702126630279</v>
       </c>
       <c r="D31" t="n">
-        <v>81.41484040883495</v>
+        <v>93.41221638965531</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801213</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437407</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897908</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571483</v>
+        <v>55.21598883571495</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523564</v>
+        <v>54.76109577523576</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3320,7 +3320,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>512.2786438284563</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>512.2786438284563</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>512.2786438284563</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>512.2786438284563</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>505.3331430792529</v>
+        <v>929.3036598490722</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4367,13 +4367,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1289.01781586839</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>898.8784838925781</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="D4" t="n">
-        <v>642.8233063694895</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="E4" t="n">
-        <v>494.9102127870964</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="F4" t="n">
-        <v>348.0202652891861</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>137.7043515607638</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776384</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>1167.840328908816</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>782.0520763105712</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2591.795070439306</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2591.795070439306</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2338.033285077397</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2338.033285077397</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2338.033285077397</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>1964.567526816317</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y5" t="n">
-        <v>1574.428194840505</v>
+        <v>1526.106027515566</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>554.3221432721093</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C8" t="n">
-        <v>185.3596263316976</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843237</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573123</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312043</v>
+        <v>1766.511549857098</v>
       </c>
       <c r="Y8" t="n">
-        <v>940.9219833362311</v>
+        <v>1376.372217881286</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>688.885551920185</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>519.9493689922781</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>68.57273095695527</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5030,28 +5030,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2507.25999687553</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>506.7814158330673</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D13" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1050.883074075915</v>
+        <v>786.0822064765185</v>
       </c>
       <c r="V13" t="n">
-        <v>796.198585870028</v>
+        <v>786.0822064765185</v>
       </c>
       <c r="W13" t="n">
-        <v>506.7814158330673</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>506.7814158330673</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>506.7814158330673</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,28 +5276,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5309,19 +5309,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>943.0172707642139</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1711.385417156675</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>244.1070389581961</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="C16" t="n">
-        <v>244.1070389581961</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581961</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581961</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5437,10 +5437,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5467,19 +5467,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>986.002216560966</v>
+        <v>986.0022165609663</v>
       </c>
       <c r="V16" t="n">
-        <v>986.002216560966</v>
+        <v>731.3177283550795</v>
       </c>
       <c r="W16" t="n">
-        <v>874.5376338299833</v>
+        <v>441.9005583181188</v>
       </c>
       <c r="X16" t="n">
-        <v>646.548082931966</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="Y16" t="n">
-        <v>425.7555037884358</v>
+        <v>213.9110074201014</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5501,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,16 +5525,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5595,22 +5595,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>392.2530740188874</v>
+        <v>310.6051391271017</v>
       </c>
       <c r="C19" t="n">
-        <v>392.2530740188874</v>
+        <v>310.6051391271017</v>
       </c>
       <c r="D19" t="n">
-        <v>392.2530740188874</v>
+        <v>160.4884997147659</v>
       </c>
       <c r="E19" t="n">
-        <v>392.2530740188874</v>
+        <v>160.4884997147659</v>
       </c>
       <c r="F19" t="n">
-        <v>245.3631265209771</v>
+        <v>160.4884997147657</v>
       </c>
       <c r="G19" t="n">
-        <v>245.3631265209771</v>
+        <v>160.4884997147657</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5680,13 +5680,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>874.9271131227916</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>620.2426249169048</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>620.2426249169048</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X19" t="n">
-        <v>392.2530740188874</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="Y19" t="n">
-        <v>392.2530740188874</v>
+        <v>310.6051391271017</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805475</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
@@ -5771,31 +5771,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5817,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>550.2226492899333</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>857.5427825698951</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>394.223678370532</v>
+        <v>226.2249729967973</v>
       </c>
       <c r="C22" t="n">
-        <v>394.223678370532</v>
+        <v>226.2249729967973</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688075</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S22" t="n">
-        <v>1389.811771471372</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T22" t="n">
-        <v>1166.026356260878</v>
+        <v>964.1357418247867</v>
       </c>
       <c r="U22" t="n">
-        <v>876.8977174744361</v>
+        <v>675.0071030383448</v>
       </c>
       <c r="V22" t="n">
-        <v>622.2132292685493</v>
+        <v>675.0071030383448</v>
       </c>
       <c r="W22" t="n">
-        <v>622.2132292685493</v>
+        <v>675.0071030383448</v>
       </c>
       <c r="X22" t="n">
-        <v>394.223678370532</v>
+        <v>447.0175521403274</v>
       </c>
       <c r="Y22" t="n">
-        <v>394.223678370532</v>
+        <v>226.2249729967973</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,19 +5987,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6014,25 +6014,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>303.4081673726145</v>
+        <v>450.0103882072915</v>
       </c>
       <c r="C25" t="n">
-        <v>303.4081673726145</v>
+        <v>281.0742052793846</v>
       </c>
       <c r="D25" t="n">
-        <v>303.4081673726145</v>
+        <v>281.0742052793846</v>
       </c>
       <c r="E25" t="n">
-        <v>303.4081673726145</v>
+        <v>133.1611116969916</v>
       </c>
       <c r="F25" t="n">
-        <v>303.4081673726145</v>
+        <v>133.1611116969916</v>
       </c>
       <c r="G25" t="n">
-        <v>303.4081673726145</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>898.792518248839</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>898.792518248839</v>
       </c>
       <c r="W25" t="n">
-        <v>531.3977182706318</v>
+        <v>898.792518248839</v>
       </c>
       <c r="X25" t="n">
-        <v>303.4081673726145</v>
+        <v>670.8029673508216</v>
       </c>
       <c r="Y25" t="n">
-        <v>303.4081673726145</v>
+        <v>450.0103882072915</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,25 +6209,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6266,10 +6266,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6306,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>929.5163332765956</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q27" t="n">
         <v>2612.943493278838</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>324.3840174432673</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C28" t="n">
-        <v>155.4478345153605</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>155.4478345153605</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>155.4478345153605</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>155.4478345153605</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6382,22 +6382,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1240.217519157017</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1240.217519157017</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352015</v>
+        <v>985.5330309511296</v>
       </c>
       <c r="W28" t="n">
-        <v>954.8146123150545</v>
+        <v>696.115860914169</v>
       </c>
       <c r="X28" t="n">
-        <v>726.8250614170372</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y28" t="n">
-        <v>506.0324822735071</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="29">
@@ -6440,37 +6440,37 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6488,22 +6488,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,22 +6540,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845919</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542201</v>
+        <v>439.5324299542172</v>
       </c>
       <c r="C31" t="n">
-        <v>326.357112307684</v>
+        <v>434.1559631596409</v>
       </c>
       <c r="D31" t="n">
-        <v>244.119899773507</v>
+        <v>339.800189028676</v>
       </c>
       <c r="E31" t="n">
-        <v>244.119899773507</v>
+        <v>247.6479607276536</v>
       </c>
       <c r="F31" t="n">
-        <v>152.9908175569675</v>
+        <v>247.6479607276536</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569675</v>
+        <v>247.6479607276536</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.450905366751</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962048</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096195</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818946</v>
+        <v>902.6804289818921</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652481</v>
+        <v>730.4517433652454</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030889</v>
+        <v>565.4200295030861</v>
       </c>
     </row>
     <row r="32">
@@ -6695,28 +6695,28 @@
         <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514075</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6786,16 +6786,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,7 +6856,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,40 +6926,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982966</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7169,34 +7169,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7336,46 +7336,46 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,37 +7409,37 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7476,34 +7476,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,10 +7567,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7582,13 +7582,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045201</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7743,7 +7743,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,37 +7804,37 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525404</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649697</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025263</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627887</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8775,22 +8775,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>18.73797368291355</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,16 +9006,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>148.1350559470644</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>392.1113620226434</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>15.83804904622809</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627438</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,13 +9726,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>188.88569463024</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>272.8719470256802</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,25 +10188,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>297.3877236703355</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10434,19 +10434,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>22.04402060665552</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>308.1251096272039</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>285.1031356539326</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,25 +11136,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>202.5230052237936</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>169.2863157167183</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23419,10 +23419,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>150.569650268806</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>48.84084321165273</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>33.08849621799492</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>176.1730614329181</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23893,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>2.249253657451809</v>
+        <v>86.27513419560107</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,13 +24130,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>131.316915761338</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>89.90735588793852</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>130.908988429039</v>
       </c>
       <c r="H25" t="n">
-        <v>55.20390867860273</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.8451328388537</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24649,10 +24649,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>163.3566071551156</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>106.7208623434405</v>
       </c>
       <c r="D31" t="n">
-        <v>11.99737598082024</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.230706018012</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.2177913943742</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897896</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>842547.8393454836</v>
+        <v>842547.8393454837</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>842547.8393454836</v>
+        <v>842547.8393454838</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>842547.8393454836</v>
+        <v>842547.8393454837</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>842547.8393454836</v>
+        <v>842547.8393454837</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>875713.3023213623</v>
+        <v>875713.3023213622</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049991</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049989</v>
-      </c>
-      <c r="C2" t="n">
-        <v>574729.2389049988</v>
       </c>
       <c r="D2" t="n">
         <v>574729.238904999</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327926</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327926</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.6836327926</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="H2" t="n">
-        <v>547440.6836327927</v>
+        <v>547440.6836327928</v>
       </c>
       <c r="I2" t="n">
-        <v>547440.6836327928</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="J2" t="n">
-        <v>547440.6836327926</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="K2" t="n">
-        <v>569550.9922833786</v>
+        <v>569550.9922833785</v>
       </c>
       <c r="L2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049979</v>
       </c>
       <c r="M2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049977</v>
       </c>
       <c r="N2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="O2" t="n">
-        <v>574729.2389049977</v>
+        <v>574729.2389049978</v>
       </c>
       <c r="P2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049983</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,22 +26390,22 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284573</v>
+        <v>44162.60530284547</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086681</v>
+        <v>10342.90680086689</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284578</v>
+        <v>44162.60530284549</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163259.7114202398</v>
+        <v>166707.1609912357</v>
       </c>
       <c r="C4" t="n">
-        <v>163259.7114202398</v>
+        <v>166707.1609912358</v>
       </c>
       <c r="D4" t="n">
-        <v>163259.7114202398</v>
+        <v>166707.1609912358</v>
       </c>
       <c r="E4" t="n">
-        <v>20264.66659570482</v>
+        <v>23039.20996089021</v>
       </c>
       <c r="F4" t="n">
-        <v>20264.66659570481</v>
+        <v>23039.20996089021</v>
       </c>
       <c r="G4" t="n">
-        <v>20264.66659570482</v>
+        <v>23039.20996089021</v>
       </c>
       <c r="H4" t="n">
-        <v>20264.66659570481</v>
+        <v>23039.20996089021</v>
       </c>
       <c r="I4" t="n">
-        <v>20264.66659570482</v>
+        <v>23039.2099608902</v>
       </c>
       <c r="J4" t="n">
-        <v>20264.66659570484</v>
+        <v>23039.20996089021</v>
       </c>
       <c r="K4" t="n">
-        <v>38429.28910990139</v>
+        <v>41203.83247508679</v>
       </c>
       <c r="L4" t="n">
-        <v>42683.4538370253</v>
+        <v>45457.99720221068</v>
       </c>
       <c r="M4" t="n">
-        <v>42683.45383702531</v>
+        <v>45457.9972022107</v>
       </c>
       <c r="N4" t="n">
-        <v>42683.45383702527</v>
+        <v>45457.9972022107</v>
       </c>
       <c r="O4" t="n">
-        <v>42683.45383702528</v>
+        <v>45457.99720221067</v>
       </c>
       <c r="P4" t="n">
-        <v>42683.45383702531</v>
+        <v>45457.9972022107</v>
       </c>
     </row>
     <row r="5">
@@ -26473,25 +26473,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26500,10 +26500,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-261357.4297931949</v>
+        <v>-264804.8793641906</v>
       </c>
       <c r="C6" t="n">
-        <v>328610.4494213496</v>
+        <v>325162.9998503537</v>
       </c>
       <c r="D6" t="n">
-        <v>328610.4494213497</v>
+        <v>325162.9998503538</v>
       </c>
       <c r="E6" t="n">
-        <v>-89971.3453885249</v>
+        <v>-92843.34787968271</v>
       </c>
       <c r="F6" t="n">
-        <v>435188.6910883711</v>
+        <v>432316.6885972132</v>
       </c>
       <c r="G6" t="n">
-        <v>435188.6910883711</v>
+        <v>432316.6885972134</v>
       </c>
       <c r="H6" t="n">
-        <v>435188.6910883712</v>
+        <v>432316.6885972138</v>
       </c>
       <c r="I6" t="n">
-        <v>435188.6910883713</v>
+        <v>432316.6885972133</v>
       </c>
       <c r="J6" t="n">
-        <v>258765.4718957782</v>
+        <v>255893.4694046205</v>
       </c>
       <c r="K6" t="n">
-        <v>390330.8893404087</v>
+        <v>387537.8522372891</v>
       </c>
       <c r="L6" t="n">
-        <v>423987.772447081</v>
+        <v>421213.2290818949</v>
       </c>
       <c r="M6" t="n">
-        <v>299529.6640141106</v>
+        <v>296755.1206489244</v>
       </c>
       <c r="N6" t="n">
-        <v>434330.679247948</v>
+        <v>431556.1358827624</v>
       </c>
       <c r="O6" t="n">
-        <v>434330.679247947</v>
+        <v>431556.1358827617</v>
       </c>
       <c r="P6" t="n">
-        <v>390168.073945102</v>
+        <v>387393.5305799167</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26744,25 +26744,25 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26771,10 +26771,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108352</v>
+        <v>12.92863350108361</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>290.8306831388527</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>64.16285195963687</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>73.24713279879977</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27582,10 +27582,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>23.75498498155895</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>124.5936350106557</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27825,13 +27825,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>28.31325977179779</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>245.2407793169696</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>242.9833393878099</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>140.9809822185503</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>272.0395466913661</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33181,40 +33181,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M29" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,10 +33254,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215733</v>
@@ -33266,7 +33266,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724845</v>
@@ -33275,10 +33275,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33290,7 +33290,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33354,7 +33354,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33366,10 +33366,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U31" t="n">
         <v>0.08167695791351813</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307152</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35267,7 +35267,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35495,22 +35495,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>106.7510064679877</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>397.3927609030887</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>702.5357390731098</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>265.0957540022525</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951457</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>395.9791095617647</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>522.1296519817046</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>630.5822970683482</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412269</v>
+        <v>67.71102679412255</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043192</v>
+        <v>94.42895660043176</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37154,19 +37154,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>304.4077228477636</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>10.73738595686864</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37397,16 +37397,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>590.488811868312</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>618.2977090519455</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>484.8867074649018</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38111,10 +38111,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>257.2993485017925</v>
       </c>
       <c r="R45" t="n">
         <v>10.73738595686864</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
